--- a/2022/SAMSUNG/MAY/16.05.2022/SAMSUNG Bank Statement May-2022.xlsx
+++ b/2022/SAMSUNG/MAY/16.05.2022/SAMSUNG Bank Statement May-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>A23</t>
+  </si>
+  <si>
+    <t>17.05.2022</t>
   </si>
 </sst>
 </file>
@@ -3151,6 +3154,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3182,12 +3191,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="42" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6088,8 +6091,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6107,67 +6110,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="388" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="388"/>
+      <c r="H1" s="388"/>
+      <c r="I1" s="388"/>
+      <c r="J1" s="388"/>
+      <c r="K1" s="388"/>
+      <c r="L1" s="388"/>
+      <c r="M1" s="388"/>
+      <c r="N1" s="388"/>
+      <c r="O1" s="388"/>
+      <c r="P1" s="388"/>
+      <c r="Q1" s="388"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="389" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
-      <c r="J2" s="387"/>
-      <c r="K2" s="387"/>
-      <c r="L2" s="387"/>
-      <c r="M2" s="387"/>
-      <c r="N2" s="387"/>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="389"/>
+      <c r="F2" s="389"/>
+      <c r="G2" s="389"/>
+      <c r="H2" s="389"/>
+      <c r="I2" s="389"/>
+      <c r="J2" s="389"/>
+      <c r="K2" s="389"/>
+      <c r="L2" s="389"/>
+      <c r="M2" s="389"/>
+      <c r="N2" s="389"/>
+      <c r="O2" s="389"/>
+      <c r="P2" s="389"/>
+      <c r="Q2" s="389"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="390" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="389"/>
-      <c r="C3" s="389"/>
-      <c r="D3" s="389"/>
-      <c r="E3" s="389"/>
-      <c r="F3" s="389"/>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="390"/>
+      <c r="B3" s="391"/>
+      <c r="C3" s="391"/>
+      <c r="D3" s="391"/>
+      <c r="E3" s="391"/>
+      <c r="F3" s="391"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="391"/>
+      <c r="K3" s="391"/>
+      <c r="L3" s="391"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="391"/>
+      <c r="O3" s="391"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="392"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6176,49 +6179,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="391" t="s">
+      <c r="A4" s="393" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="393" t="s">
+      <c r="B4" s="395" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="395" t="s">
+      <c r="C4" s="384" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="395" t="s">
+      <c r="D4" s="384" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="395" t="s">
+      <c r="E4" s="384" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="397" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="395" t="s">
+      <c r="G4" s="384" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="395" t="s">
+      <c r="H4" s="384" t="s">
         <v>149</v>
       </c>
-      <c r="I4" s="395" t="s">
+      <c r="I4" s="384" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="395" t="s">
+      <c r="J4" s="384" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="395" t="s">
+      <c r="K4" s="384" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="395" t="s">
+      <c r="L4" s="384" t="s">
         <v>153</v>
       </c>
-      <c r="M4" s="395" t="s">
+      <c r="M4" s="384" t="s">
         <v>151</v>
       </c>
-      <c r="N4" s="395" t="s">
+      <c r="N4" s="384" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="384" t="s">
+      <c r="O4" s="386" t="s">
         <v>182</v>
       </c>
       <c r="P4" s="399" t="s">
@@ -6234,21 +6237,21 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="392"/>
-      <c r="B5" s="394"/>
-      <c r="C5" s="396"/>
-      <c r="D5" s="396"/>
-      <c r="E5" s="396"/>
+      <c r="A5" s="394"/>
+      <c r="B5" s="396"/>
+      <c r="C5" s="385"/>
+      <c r="D5" s="385"/>
+      <c r="E5" s="385"/>
       <c r="F5" s="398"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-      <c r="J5" s="396"/>
-      <c r="K5" s="396"/>
-      <c r="L5" s="396"/>
-      <c r="M5" s="396"/>
-      <c r="N5" s="396"/>
-      <c r="O5" s="385"/>
+      <c r="G5" s="385"/>
+      <c r="H5" s="385"/>
+      <c r="I5" s="385"/>
+      <c r="J5" s="385"/>
+      <c r="K5" s="385"/>
+      <c r="L5" s="385"/>
+      <c r="M5" s="385"/>
+      <c r="N5" s="385"/>
+      <c r="O5" s="387"/>
       <c r="P5" s="400"/>
       <c r="Q5" s="122" t="s">
         <v>36</v>
@@ -6698,7 +6701,9 @@
       <c r="W17" s="33"/>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1">
-      <c r="A18" s="71"/>
+      <c r="A18" s="71" t="s">
+        <v>234</v>
+      </c>
       <c r="B18" s="79"/>
       <c r="C18" s="72"/>
       <c r="D18" s="80"/>
@@ -6709,14 +6714,16 @@
       <c r="I18" s="80"/>
       <c r="J18" s="80"/>
       <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
+      <c r="L18" s="80">
+        <v>1260</v>
+      </c>
       <c r="M18" s="80"/>
       <c r="N18" s="111"/>
       <c r="O18" s="82"/>
       <c r="P18" s="82"/>
       <c r="Q18" s="76">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="R18" s="77"/>
       <c r="S18" s="6"/>
@@ -7215,7 +7222,7 @@
       </c>
       <c r="L37" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="M37" s="98">
         <f t="shared" si="1"/>
@@ -7235,7 +7242,7 @@
       </c>
       <c r="Q37" s="100">
         <f>SUM(Q6:Q36)</f>
-        <v>5660</v>
+        <v>6920</v>
       </c>
       <c r="S37" s="224" t="s">
         <v>39</v>
@@ -9239,8 +9246,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9258,6 +9263,8 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9269,8 +9276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33383,7 +33390,7 @@
   </sheetPr>
   <dimension ref="A1:R220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
